--- a/Timing_Automata.xlsx
+++ b/Timing_Automata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>v1</t>
   </si>
@@ -26,6 +26,30 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>По кол-ву регулярных выражений</t>
+  </si>
+  <si>
+    <t>По длине регулярных выражений</t>
+  </si>
+  <si>
+    <t>10 x 100</t>
+  </si>
+  <si>
+    <t>50 x 100</t>
+  </si>
+  <si>
+    <t>100 x 100</t>
+  </si>
+  <si>
+    <t>v1 (SMC)</t>
+  </si>
+  <si>
+    <t>v2 (Regex)</t>
+  </si>
+  <si>
+    <t>v3 (jflex)</t>
   </si>
 </sst>
 </file>
@@ -61,8 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -95,7 +122,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Count_cases</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30945822397200351"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -128,48 +188,35 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$8</c:f>
+              <c:f>Лист1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>X</c:v>
+                  <c:v>v1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$8:$D$8</c:f>
               <c:numCache>
@@ -186,47 +233,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>v1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$B$9:$D$9</c:f>
@@ -245,11 +252,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Лист1!$A$10</c:f>
@@ -262,29 +268,33 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$B$10:$D$10</c:f>
@@ -303,11 +313,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Лист1!$A$11</c:f>
@@ -320,29 +329,33 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$B$11:$D$11</c:f>
@@ -361,7 +374,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -371,13 +383,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="358954304"/>
-        <c:axId val="358956264"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="365496608"/>
+        <c:axId val="365497000"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="358954304"/>
+        <c:axId val="365496608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +432,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358956264"/>
+        <c:crossAx val="365497000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -428,7 +440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="358956264"/>
+        <c:axId val="365497000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +491,462 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358954304"/>
+        <c:crossAx val="365496608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Len_cases</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$14:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 x 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 x 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 x 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2683600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7387400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41690200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$14:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 x 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 x 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 x 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>531200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>863000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1806600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$B$14:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10 x 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 x 100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 x 100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1778000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3460200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7292100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="367387856"/>
+        <c:axId val="367388640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="367387856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367388640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367388640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367387856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -600,8 +1067,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1103,24 +1610,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1130,6 +2140,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1425,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,13 +2483,13 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,10 +2534,15 @@
         <v>561339300</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
       <c r="B8">
         <v>100</v>
       </c>
@@ -1550,8 +2595,74 @@
         <v>561339300</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2683600</v>
+      </c>
+      <c r="C15">
+        <v>7387400</v>
+      </c>
+      <c r="D15">
+        <v>41690200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>531200</v>
+      </c>
+      <c r="C16">
+        <v>863000</v>
+      </c>
+      <c r="D16">
+        <v>1806600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1778000</v>
+      </c>
+      <c r="C17">
+        <v>3460200</v>
+      </c>
+      <c r="D17">
+        <v>7292100</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>